--- a/data/trans_dic/P6-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P6-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -534,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha experimentado cambio de convivientes en sus viviendas</t>
+          <t>Población que ha experimentado cambio de convivientes en sus viviendas (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -656,62 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>5,18%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,64%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>8,01%</t>
+          <t>5,95%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>4,76%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>7,03%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>6,25%</t>
+          <t>4,55%</t>
         </is>
       </c>
     </row>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,6; 8,35</t>
+          <t>1,88; 12,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,0; 24,88</t>
+          <t>2,34; 11,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,08; 14,03</t>
+          <t>1,45; 5,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,91; 7,55</t>
+          <t>1,44; 5,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,26; 7,6</t>
+          <t>1,66; 9,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,56; 9,74</t>
+          <t>2,23; 9,68</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,58; 11,77</t>
+          <t>1,78; 5,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,96; 11,39</t>
+          <t>4,04; 8,66</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,52; 7,12</t>
+          <t>2,49; 8,42</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,17; 14,97</t>
+          <t>2,92; 8,64</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,08; 11,25</t>
+          <t>1,98; 5,13</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,46; 8,79</t>
+          <t>3,17; 6,22</t>
         </is>
       </c>
     </row>
@@ -796,62 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,7%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,17%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>11,37%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>10,46%</t>
+          <t>8,88%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>9,8%</t>
+          <t>9,78%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>11,65%</t>
+          <t>9,87%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>15,29%</t>
+          <t>10,84%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>14,31%</t>
+          <t>11,74%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>7,76%</t>
+          <t>7,85%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>10,41%</t>
+          <t>8,38%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>13,27%</t>
+          <t>9,41%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>12,35%</t>
+          <t>10,26%</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,15; 7,6</t>
+          <t>3,37; 9,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,59; 12,48</t>
+          <t>4,31; 10,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,13; 15,3</t>
+          <t>5,37; 11,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,7; 13,91</t>
+          <t>6,63; 11,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,79; 11,96</t>
+          <t>6,97; 13,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,0; 14,77</t>
+          <t>6,98; 14,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,85; 19,38</t>
+          <t>8,27; 14,05</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,17; 18,54</t>
+          <t>9,26; 14,74</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,46; 9,22</t>
+          <t>5,84; 10,3</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,57; 12,92</t>
+          <t>6,39; 10,72</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,87; 16,41</t>
+          <t>7,35; 11,69</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>10,44; 15,17</t>
+          <t>8,6; 12,42</t>
         </is>
       </c>
     </row>
@@ -936,62 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,44%</t>
+          <t>9,01%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,17%</t>
+          <t>8,3%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>13,18%</t>
+          <t>10,51%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>13,29%</t>
+          <t>10,65%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,97%</t>
+          <t>10,04%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>11,5%</t>
+          <t>9,08%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>15,06%</t>
+          <t>10,1%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>16,03%</t>
+          <t>12,76%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>9,56%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>11,34%</t>
+          <t>8,7%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>14,13%</t>
+          <t>10,29%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>14,71%</t>
+          <t>11,74%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,11; 11,45</t>
+          <t>5,62; 13,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,46; 16,74</t>
+          <t>5,45; 12,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,43; 17,12</t>
+          <t>7,86; 13,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,45; 17,5</t>
+          <t>8,1; 13,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,77; 10,75</t>
+          <t>6,42; 13,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,42; 15,6</t>
+          <t>6,41; 12,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,7; 19,1</t>
+          <t>7,66; 13,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,63; 19,35</t>
+          <t>10,18; 15,84</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,5; 10,07</t>
+          <t>6,89; 12,46</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>8,95; 14,51</t>
+          <t>6,34; 11,05</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11,42; 17,15</t>
+          <t>8,24; 12,54</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>12,23; 17,48</t>
+          <t>9,8; 13,88</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>6,17%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,61%</t>
+          <t>6,66%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11,27%</t>
+          <t>5,41%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,99%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>10,32%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>13,52%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>13,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>6,89%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>9,98%</t>
+          <t>7,17%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>12,41%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>11,69%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,68 +1145,216 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,17; 7,68</t>
+          <t>4,53; 7,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,44; 12,88</t>
+          <t>4,6; 10,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,13; 13,83</t>
+          <t>3,2; 8,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,23; 12,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,96; 9,58</t>
+          <t>5,85; 9,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,66; 12,47</t>
+          <t>5,44; 10,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,31; 15,98</t>
+          <t>3,7; 8,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,44; 15,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,37; 8,28</t>
+          <t>5,76; 8,24</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,56; 11,8</t>
+          <t>5,62; 9,35</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,83; 14,35</t>
+          <t>3,92; 8,03</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>10,22; 13,36</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>6,4%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6,95%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7,22%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>8,16%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>8,17%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>8,26%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>8,26%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>10,61%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>7,3%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>7,62%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>7,75%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>9,41%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>5,1; 7,8</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5,61; 8,93</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>5,78; 8,81</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>6,8; 10,07</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>6,93; 9,5</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>6,89; 10,02</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>6,93; 9,79</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>9,17; 12,48</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>6,39; 8,26</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>6,53; 8,81</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>6,7; 8,83</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>8,29; 10,56</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
@@ -1216,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha experimentado cambio de convivientes en sus viviendas (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>11725</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>19803</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>16979</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>20605</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>11508</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>20283</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>21505</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>53484</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>23233</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>40085</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>38484</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>74089</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>4268; 28092</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>7935; 38696</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>7695; 31663</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>10458; 36657</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>4338; 24109</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>9394; 40813</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>11337; 37733</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>36343; 77786</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>12167; 41088</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>22239; 65759</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>23114; 60020</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>51649; 101123</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>37277</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>63249</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>96033</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>144101</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>69904</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>98739</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>133683</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>176976</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>107180</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>161988</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>229716</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>321077</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>21955; 61125</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>40162; 94930</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>64868; 139445</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>107473; 189714</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>49833; 97540</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>69808; 140835</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>101980; 173270</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>139653; 222249</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>79722; 140756</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>123547; 207165</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>179369; 285212</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>269093; 388843</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>41044</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>59406</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>88908</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>116449</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>53370</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>69808</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>95094</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>148424</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>94414</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>129214</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>184002</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>264873</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>25621; 62400</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>38977; 89652</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>66437; 117220</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>88571; 150233</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>34118; 73035</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>49278; 98935</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>72114; 123491</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>118480; 184294</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>67996; 122981</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>94136; 163998</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>147312; 224158</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>221219; 313231</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>130452</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>97118</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>46522</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>159127</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>107946</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>45006</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>289578</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>205064</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>91528</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>95775; 169022</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>66975; 152565</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>27489; 76224</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>122169; 195474</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>76295; 141394</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>28219; 68563</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>242117; 346280</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>160813; 267413</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>63561; 130308</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>170.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>225.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>195.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>226.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>279.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>220498</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>239575</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>248441</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>281155</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>293908</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>296775</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>295288</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>378884</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>514406</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>536351</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>543730</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>660039</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>175884; 269009</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>193238; 307764</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>198918; 303297</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>234129; 346799</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>249361; 341972</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>247796; 360032</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>247884; 350025</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>327354; 445631</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>450414; 581743</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>459858; 620300</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>470165; 619564</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>581268; 740918</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>